--- a/transport/routeData.xlsx
+++ b/transport/routeData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lehuy/Downloads/Daa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lehuy/Documents/GitHub/DAAlgo/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C3E743-8B41-A043-A9A8-62DBA0792443}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A4EE24-55B0-D949-A1D5-84551D2175D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34880" yWindow="4480" windowWidth="27640" windowHeight="15940" xr2:uid="{80BD5100-16F9-9E44-B4B3-73ABAE8FA6FE}"/>
+    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{80BD5100-16F9-9E44-B4B3-73ABAE8FA6FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>A</t>
   </si>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFDC173-A96F-9A45-9049-EEFF810E87D4}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,72 +551,100 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>290</v>
+        <v>720</v>
       </c>
       <c r="D10" s="2">
-        <v>4.83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
-        <v>720</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C13" s="2">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>142</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>210</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>87</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>221</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/transport/routeData.xlsx
+++ b/transport/routeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lehuy/Documents/GitHub/DAAlgo/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DAAlgo\transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A4EE24-55B0-D949-A1D5-84551D2175D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F93B41C-B60E-46F1-81D2-F56C81B74E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="460" windowWidth="27640" windowHeight="15940" xr2:uid="{80BD5100-16F9-9E44-B4B3-73ABAE8FA6FE}"/>
+    <workbookView xWindow="18000" yWindow="1410" windowWidth="10890" windowHeight="11505" xr2:uid="{80BD5100-16F9-9E44-B4B3-73ABAE8FA6FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>no_cont</t>
   </si>
 </sst>
 </file>
@@ -93,12 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFDC173-A96F-9A45-9049-EEFF810E87D4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -436,8 +463,12 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +481,11 @@
       <c r="D2" s="2">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +498,11 @@
       <c r="D3" s="2">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -478,8 +515,11 @@
       <c r="D4" s="2">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -492,8 +532,11 @@
       <c r="D5" s="2">
         <v>24.17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,8 +549,18 @@
       <c r="D6" s="2">
         <v>10.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,8 +573,20 @@
       <c r="D7" s="2">
         <v>12.35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +599,17 @@
       <c r="D8" s="2">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -548,8 +622,17 @@
       <c r="D9" s="2">
         <v>6.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -562,8 +645,17 @@
       <c r="D10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,8 +668,17 @@
       <c r="D11" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -590,8 +691,11 @@
       <c r="D12" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -604,8 +708,11 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,8 +725,11 @@
       <c r="D14" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -632,8 +742,11 @@
       <c r="D15" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -646,8 +759,15 @@
       <c r="D16" s="2">
         <v>6</v>
       </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J6:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>